--- a/new_instructions_3.xlsx
+++ b/new_instructions_3.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>instruct_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You'll be given a blank textbox under the image, where you can type out all the details of the story you can remember. </t>
   </si>
   <si>
     <t xml:space="preserve">There is a 5 minute time limit for recalling each story. </t>
@@ -164,6 +167,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -180,36 +213,6 @@
     <border>
       <left style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -280,14 +283,14 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1443,7 +1446,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="79.55" customHeight="1">
+    <row r="2" ht="139.55" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
@@ -1454,189 +1457,191 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="7">
+    <row r="3" ht="79.55" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="94.55" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>2</v>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="94.55" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.65" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="20.65" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/new_instructions_3.xlsx
+++ b/new_instructions_3.xlsx
@@ -17,7 +17,7 @@
     <t>instruct_text</t>
   </si>
   <si>
-    <t xml:space="preserve">You'll be given a blank textbox under the image, where you can type out all the details of the story you can remember. </t>
+    <t xml:space="preserve">You'll be given a blank text box under the image, where you can type out all the details of the story you can remember. </t>
   </si>
   <si>
     <t xml:space="preserve">There is a 5 minute time limit for recalling each story. </t>
@@ -275,7 +275,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -290,7 +290,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1425,13 +1425,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
